--- a/config/apartments.xlsx
+++ b/config/apartments.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Also\Realty\Programs\Programs\config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12841D25-FC4A-4516-859F-79F757A19233}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32460" windowHeight="9705" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -27,120 +22,142 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
-    <t>Квартира</t>
-  </si>
-  <si>
-    <t>ПроцентХозяину</t>
-  </si>
-  <si>
-    <t>Фикс</t>
-  </si>
-  <si>
-    <t>Уборка</t>
-  </si>
-  <si>
-    <t>Белье</t>
-  </si>
-  <si>
-    <t>Примечание</t>
-  </si>
-  <si>
-    <t>Псевдоним</t>
-  </si>
-  <si>
-    <t>улица Бутлерова, 40</t>
-  </si>
-  <si>
-    <t>Некрасова, 37/20 2</t>
-  </si>
-  <si>
-    <t>Вадик, хозяин при расчетах как бы Вера</t>
-  </si>
-  <si>
-    <t>Н_2 Лимон</t>
-  </si>
-  <si>
-    <t>Некрасова, 37/20 3</t>
-  </si>
-  <si>
-    <t>Оранжевая Наташа Данила</t>
-  </si>
-  <si>
-    <t>Н_3 Оранж</t>
-  </si>
-  <si>
-    <t>Некрасова, 37/20 4</t>
-  </si>
-  <si>
-    <t>Наша</t>
-  </si>
-  <si>
-    <t>Н_4 Люстра</t>
-  </si>
-  <si>
-    <t>Некрасова, 37/20 5</t>
-  </si>
-  <si>
-    <t>Вера Горбачева</t>
-  </si>
-  <si>
-    <t>Н_5 Аскет</t>
-  </si>
-  <si>
-    <t>14-я линия В.О., 31-33 3</t>
+    <t xml:space="preserve">Квартира</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПроцентХозяину</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фикс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уборка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белье</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Примечание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Псевдоним</t>
+  </si>
+  <si>
+    <t xml:space="preserve">улица Бутлерова, 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Некрасова, 37/20 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вадик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н_2 Лимон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Некрасова, 37/20 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оранжевая Наташа Данила</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н_3 Оранж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Некрасова, 37/20 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наша</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н_4 Люстра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Некрасова, 37/20 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вера Горбачева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н_5 Аскет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-я линия В.О., 31-33 3</t>
   </si>
   <si>
     <t xml:space="preserve">14-я. Наша 3 </t>
   </si>
   <si>
-    <t>14-я линия В.О., 31-33 4</t>
-  </si>
-  <si>
-    <t>Надежда</t>
-  </si>
-  <si>
-    <t>14-я. Надежда 4</t>
-  </si>
-  <si>
-    <t>14-я линия В.О., 31-33 6</t>
-  </si>
-  <si>
-    <t>Марина</t>
-  </si>
-  <si>
-    <t>14-я. Марина 6</t>
-  </si>
-  <si>
-    <t>Каменноостровский проспект, 22</t>
-  </si>
-  <si>
-    <t>Краска</t>
-  </si>
-  <si>
-    <t>Жанна</t>
-  </si>
-  <si>
-    <t>11-я линия Васильевского острова, 28</t>
-  </si>
-  <si>
-    <t>Декабристов 62</t>
-  </si>
-  <si>
-    <t>Декабристов, 62</t>
-  </si>
-  <si>
-    <t>Света Малых</t>
+    <t xml:space="preserve">14-я линия В.О., 31-33 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Надежда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-я. Надежда 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-я линия В.О., 31-33 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-я. Марина 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каменноостровский проспект, 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Краска</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-я линия Васильевского острова, 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жанна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Декабристов, 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Света Малых</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Декабристов 62</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -153,7 +170,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -161,89 +178,123 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -296,29 +347,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36" style="2" customWidth="1"/>
-    <col min="7" max="7" width="44" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -341,14 +393,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="n">
         <v>1500</v>
       </c>
       <c r="F2" s="3"/>
@@ -356,17 +408,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="n">
         <v>500</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -376,7 +428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -388,17 +440,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="n">
         <v>500</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -409,7 +461,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -422,17 +474,17 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>500</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -442,17 +494,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="n">
         <v>500</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -463,7 +515,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -475,20 +527,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="n">
         <v>2500</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1" t="n">
         <v>500</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -496,55 +548,56 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1">
+      <c r="G11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11">
-        <v>3000</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D12" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1">
-        <v>70</v>
-      </c>
-      <c r="D12">
-        <v>1500</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G11:H11"/>
   </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>

--- a/config/apartments.xlsx
+++ b/config/apartments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t xml:space="preserve">Квартира</t>
   </si>
@@ -43,13 +43,16 @@
     <t xml:space="preserve">Псевдоним</t>
   </si>
   <si>
+    <t xml:space="preserve">Расходы</t>
+  </si>
+  <si>
     <t xml:space="preserve">улица Бутлерова, 40</t>
   </si>
   <si>
     <t xml:space="preserve">Некрасова, 37/20 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Вадик</t>
+    <t xml:space="preserve">Вадик, хозяин при расчетах как бы Вера</t>
   </si>
   <si>
     <t xml:space="preserve">Н_2 Лимон</t>
@@ -82,12 +85,15 @@
     <t xml:space="preserve">Н_5 Аскет</t>
   </si>
   <si>
+    <t xml:space="preserve">14-я линия В.О., 31-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-я. Наша 3 </t>
+  </si>
+  <si>
     <t xml:space="preserve">14-я линия В.О., 31-33 3</t>
   </si>
   <si>
-    <t xml:space="preserve">14-я. Наша 3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">14-я линия В.О., 31-33 4</t>
   </si>
   <si>
@@ -125,6 +131,42 @@
   </si>
   <si>
     <t xml:space="preserve">Декабристов 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">улица Константина Заслонова, 9/4 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хабаровск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заслонова 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">улица Константина Заслонова, 9/4 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заслонова 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">улица Константина Заслонова, 9/4 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ольга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заслонова 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">улица Константина Заслонова, 9/4 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заслонова 6</t>
   </si>
 </sst>
 </file>
@@ -355,10 +397,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -392,10 +434,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -405,12 +450,12 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>100</v>
@@ -422,27 +467,27 @@
         <v>500</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -454,29 +499,29 @@
         <v>500</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0</v>
@@ -488,87 +533,86 @@
         <v>500</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>500</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="5"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="F10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>500</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>20000</v>
+      </c>
       <c r="D11" s="1" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -577,8 +621,9 @@
       <c r="B12" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>1500</v>
+      <c r="C12" s="1"/>
+      <c r="D12" s="0" t="n">
+        <v>2500</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>1000</v>
@@ -586,13 +631,126 @@
       <c r="F12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
